--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ156"/>
+  <dimension ref="A1:FB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,6 +904,12 @@
       <c r="EZ1" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="FA1" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="FB1" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1374,6 +1380,12 @@
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
+      <c r="FA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1844,6 +1856,12 @@
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2314,6 +2332,12 @@
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
+      <c r="FA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2784,6 +2808,12 @@
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3252,6 +3282,12 @@
         <v>0</v>
       </c>
       <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3724,6 +3760,12 @@
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4194,6 +4236,12 @@
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -4664,6 +4712,12 @@
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5134,6 +5188,12 @@
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5604,6 +5664,12 @@
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
+      <c r="FA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6074,6 +6140,12 @@
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
+      <c r="FA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6544,6 +6616,12 @@
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
+      <c r="FA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7014,6 +7092,12 @@
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
+      <c r="FA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7484,6 +7568,12 @@
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
+      <c r="FA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7954,6 +8044,12 @@
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8424,6 +8520,12 @@
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
+      <c r="FA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -8894,6 +8996,12 @@
       <c r="EZ18" t="n">
         <v>0</v>
       </c>
+      <c r="FA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9364,6 +9472,12 @@
       <c r="EZ19" t="n">
         <v>0</v>
       </c>
+      <c r="FA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -9834,6 +9948,12 @@
       <c r="EZ20" t="n">
         <v>0</v>
       </c>
+      <c r="FA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10304,6 +10424,12 @@
       <c r="EZ21" t="n">
         <v>0</v>
       </c>
+      <c r="FA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -10774,6 +10900,12 @@
       <c r="EZ22" t="n">
         <v>0</v>
       </c>
+      <c r="FA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11244,6 +11376,12 @@
       <c r="EZ23" t="n">
         <v>0</v>
       </c>
+      <c r="FA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11714,6 +11852,12 @@
       <c r="EZ24" t="n">
         <v>0</v>
       </c>
+      <c r="FA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12184,6 +12328,12 @@
       <c r="EZ25" t="n">
         <v>0</v>
       </c>
+      <c r="FA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12654,6 +12804,12 @@
       <c r="EZ26" t="n">
         <v>0</v>
       </c>
+      <c r="FA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13124,6 +13280,12 @@
       <c r="EZ27" t="n">
         <v>0</v>
       </c>
+      <c r="FA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13594,6 +13756,12 @@
       <c r="EZ28" t="n">
         <v>0</v>
       </c>
+      <c r="FA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -14064,6 +14232,12 @@
       <c r="EZ29" t="n">
         <v>0</v>
       </c>
+      <c r="FA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14534,6 +14708,12 @@
       <c r="EZ30" t="n">
         <v>0</v>
       </c>
+      <c r="FA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -15004,6 +15184,12 @@
       <c r="EZ31" t="n">
         <v>0</v>
       </c>
+      <c r="FA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -15474,6 +15660,12 @@
       <c r="EZ32" t="n">
         <v>0</v>
       </c>
+      <c r="FA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -15944,6 +16136,12 @@
       <c r="EZ33" t="n">
         <v>0</v>
       </c>
+      <c r="FA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -16414,6 +16612,12 @@
       <c r="EZ34" t="n">
         <v>0</v>
       </c>
+      <c r="FA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -16884,6 +17088,12 @@
       <c r="EZ35" t="n">
         <v>0</v>
       </c>
+      <c r="FA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -17354,6 +17564,12 @@
       <c r="EZ36" t="n">
         <v>0</v>
       </c>
+      <c r="FA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -17824,6 +18040,12 @@
       <c r="EZ37" t="n">
         <v>0</v>
       </c>
+      <c r="FA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -18294,6 +18516,12 @@
       <c r="EZ38" t="n">
         <v>0</v>
       </c>
+      <c r="FA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -18764,6 +18992,12 @@
       <c r="EZ39" t="n">
         <v>0</v>
       </c>
+      <c r="FA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -19234,6 +19468,12 @@
       <c r="EZ40" t="n">
         <v>0</v>
       </c>
+      <c r="FA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -19704,6 +19944,12 @@
       <c r="EZ41" t="n">
         <v>0</v>
       </c>
+      <c r="FA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -20174,6 +20420,12 @@
       <c r="EZ42" t="n">
         <v>0</v>
       </c>
+      <c r="FA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -20644,6 +20896,12 @@
       <c r="EZ43" t="n">
         <v>0</v>
       </c>
+      <c r="FA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -21114,6 +21372,12 @@
       <c r="EZ44" t="n">
         <v>0</v>
       </c>
+      <c r="FA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -21584,6 +21848,12 @@
       <c r="EZ45" t="n">
         <v>0</v>
       </c>
+      <c r="FA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -22054,6 +22324,12 @@
       <c r="EZ46" t="n">
         <v>0</v>
       </c>
+      <c r="FA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -22524,6 +22800,12 @@
       <c r="EZ47" t="n">
         <v>0</v>
       </c>
+      <c r="FA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -22994,6 +23276,12 @@
       <c r="EZ48" t="n">
         <v>0</v>
       </c>
+      <c r="FA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -23464,6 +23752,12 @@
       <c r="EZ49" t="n">
         <v>0</v>
       </c>
+      <c r="FA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -23934,6 +24228,12 @@
       <c r="EZ50" t="n">
         <v>0</v>
       </c>
+      <c r="FA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -24404,6 +24704,12 @@
       <c r="EZ51" t="n">
         <v>0</v>
       </c>
+      <c r="FA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -24874,6 +25180,12 @@
       <c r="EZ52" t="n">
         <v>0</v>
       </c>
+      <c r="FA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -25344,6 +25656,12 @@
       <c r="EZ53" t="n">
         <v>0</v>
       </c>
+      <c r="FA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -25814,6 +26132,12 @@
       <c r="EZ54" t="n">
         <v>0</v>
       </c>
+      <c r="FA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -26284,6 +26608,12 @@
       <c r="EZ55" t="n">
         <v>0</v>
       </c>
+      <c r="FA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -26754,6 +27084,12 @@
       <c r="EZ56" t="n">
         <v>0</v>
       </c>
+      <c r="FA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -27224,6 +27560,12 @@
       <c r="EZ57" t="n">
         <v>0</v>
       </c>
+      <c r="FA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -27694,6 +28036,12 @@
       <c r="EZ58" t="n">
         <v>0</v>
       </c>
+      <c r="FA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -28164,6 +28512,12 @@
       <c r="EZ59" t="n">
         <v>0</v>
       </c>
+      <c r="FA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -28634,6 +28988,12 @@
       <c r="EZ60" t="n">
         <v>0</v>
       </c>
+      <c r="FA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -29104,6 +29464,12 @@
       <c r="EZ61" t="n">
         <v>0</v>
       </c>
+      <c r="FA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -29574,6 +29940,12 @@
       <c r="EZ62" t="n">
         <v>0</v>
       </c>
+      <c r="FA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -30044,6 +30416,12 @@
       <c r="EZ63" t="n">
         <v>0</v>
       </c>
+      <c r="FA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -30514,6 +30892,12 @@
       <c r="EZ64" t="n">
         <v>0</v>
       </c>
+      <c r="FA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -30984,6 +31368,12 @@
       <c r="EZ65" t="n">
         <v>0</v>
       </c>
+      <c r="FA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -31454,6 +31844,12 @@
       <c r="EZ66" t="n">
         <v>0</v>
       </c>
+      <c r="FA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -31924,6 +32320,12 @@
       <c r="EZ67" t="n">
         <v>0</v>
       </c>
+      <c r="FA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -32394,6 +32796,12 @@
       <c r="EZ68" t="n">
         <v>0</v>
       </c>
+      <c r="FA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -32864,6 +33272,12 @@
       <c r="EZ69" t="n">
         <v>0</v>
       </c>
+      <c r="FA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -33334,6 +33748,12 @@
       <c r="EZ70" t="n">
         <v>0</v>
       </c>
+      <c r="FA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -33804,6 +34224,12 @@
       <c r="EZ71" t="n">
         <v>0</v>
       </c>
+      <c r="FA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -34274,6 +34700,12 @@
       <c r="EZ72" t="n">
         <v>0</v>
       </c>
+      <c r="FA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -34744,6 +35176,12 @@
       <c r="EZ73" t="n">
         <v>0</v>
       </c>
+      <c r="FA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -35214,6 +35652,12 @@
       <c r="EZ74" t="n">
         <v>0</v>
       </c>
+      <c r="FA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -35684,6 +36128,12 @@
       <c r="EZ75" t="n">
         <v>0</v>
       </c>
+      <c r="FA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -36154,6 +36604,12 @@
       <c r="EZ76" t="n">
         <v>0</v>
       </c>
+      <c r="FA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -36624,6 +37080,12 @@
       <c r="EZ77" t="n">
         <v>0</v>
       </c>
+      <c r="FA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -37094,6 +37556,12 @@
       <c r="EZ78" t="n">
         <v>0</v>
       </c>
+      <c r="FA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -37564,6 +38032,12 @@
       <c r="EZ79" t="n">
         <v>0</v>
       </c>
+      <c r="FA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -38034,6 +38508,12 @@
       <c r="EZ80" t="n">
         <v>0</v>
       </c>
+      <c r="FA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -38504,6 +38984,12 @@
       <c r="EZ81" t="n">
         <v>0</v>
       </c>
+      <c r="FA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -38974,6 +39460,12 @@
       <c r="EZ82" t="n">
         <v>0</v>
       </c>
+      <c r="FA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -39444,6 +39936,12 @@
       <c r="EZ83" t="n">
         <v>0</v>
       </c>
+      <c r="FA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -39914,6 +40412,12 @@
       <c r="EZ84" t="n">
         <v>0</v>
       </c>
+      <c r="FA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -40384,6 +40888,12 @@
       <c r="EZ85" t="n">
         <v>0</v>
       </c>
+      <c r="FA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -40854,6 +41364,12 @@
       <c r="EZ86" t="n">
         <v>0</v>
       </c>
+      <c r="FA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -41324,6 +41840,12 @@
       <c r="EZ87" t="n">
         <v>0</v>
       </c>
+      <c r="FA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -41794,6 +42316,12 @@
       <c r="EZ88" t="n">
         <v>0</v>
       </c>
+      <c r="FA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -42264,6 +42792,12 @@
       <c r="EZ89" t="n">
         <v>0</v>
       </c>
+      <c r="FA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -42734,6 +43268,12 @@
       <c r="EZ90" t="n">
         <v>0</v>
       </c>
+      <c r="FA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -43204,6 +43744,12 @@
       <c r="EZ91" t="n">
         <v>0</v>
       </c>
+      <c r="FA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -43674,6 +44220,12 @@
       <c r="EZ92" t="n">
         <v>0</v>
       </c>
+      <c r="FA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -44144,6 +44696,12 @@
       <c r="EZ93" t="n">
         <v>0</v>
       </c>
+      <c r="FA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -44614,6 +45172,12 @@
       <c r="EZ94" t="n">
         <v>0</v>
       </c>
+      <c r="FA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -45084,6 +45648,12 @@
       <c r="EZ95" t="n">
         <v>0</v>
       </c>
+      <c r="FA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -45554,6 +46124,12 @@
       <c r="EZ96" t="n">
         <v>0</v>
       </c>
+      <c r="FA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -46024,6 +46600,12 @@
       <c r="EZ97" t="n">
         <v>0</v>
       </c>
+      <c r="FA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -46494,6 +47076,12 @@
       <c r="EZ98" t="n">
         <v>0</v>
       </c>
+      <c r="FA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -46964,6 +47552,12 @@
       <c r="EZ99" t="n">
         <v>0</v>
       </c>
+      <c r="FA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -47434,6 +48028,12 @@
       <c r="EZ100" t="n">
         <v>0</v>
       </c>
+      <c r="FA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -47904,6 +48504,12 @@
       <c r="EZ101" t="n">
         <v>0</v>
       </c>
+      <c r="FA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -48374,6 +48980,12 @@
       <c r="EZ102" t="n">
         <v>0</v>
       </c>
+      <c r="FA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -48844,6 +49456,12 @@
       <c r="EZ103" t="n">
         <v>0</v>
       </c>
+      <c r="FA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -49314,6 +49932,12 @@
       <c r="EZ104" t="n">
         <v>0</v>
       </c>
+      <c r="FA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -49784,6 +50408,12 @@
       <c r="EZ105" t="n">
         <v>0</v>
       </c>
+      <c r="FA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -50254,6 +50884,12 @@
       <c r="EZ106" t="n">
         <v>0</v>
       </c>
+      <c r="FA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -50724,6 +51360,12 @@
       <c r="EZ107" t="n">
         <v>0</v>
       </c>
+      <c r="FA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -51194,6 +51836,12 @@
       <c r="EZ108" t="n">
         <v>0</v>
       </c>
+      <c r="FA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -51664,6 +52312,12 @@
       <c r="EZ109" t="n">
         <v>0</v>
       </c>
+      <c r="FA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -52134,6 +52788,12 @@
       <c r="EZ110" t="n">
         <v>0</v>
       </c>
+      <c r="FA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -52604,6 +53264,12 @@
       <c r="EZ111" t="n">
         <v>0</v>
       </c>
+      <c r="FA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -53074,6 +53740,12 @@
       <c r="EZ112" t="n">
         <v>0</v>
       </c>
+      <c r="FA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -53544,6 +54216,12 @@
       <c r="EZ113" t="n">
         <v>0</v>
       </c>
+      <c r="FA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -54014,6 +54692,12 @@
       <c r="EZ114" t="n">
         <v>0</v>
       </c>
+      <c r="FA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -54484,6 +55168,12 @@
       <c r="EZ115" t="n">
         <v>0</v>
       </c>
+      <c r="FA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -54954,6 +55644,12 @@
       <c r="EZ116" t="n">
         <v>0</v>
       </c>
+      <c r="FA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -55424,6 +56120,12 @@
       <c r="EZ117" t="n">
         <v>0</v>
       </c>
+      <c r="FA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -55894,6 +56596,12 @@
       <c r="EZ118" t="n">
         <v>0</v>
       </c>
+      <c r="FA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -56364,6 +57072,12 @@
       <c r="EZ119" t="n">
         <v>0</v>
       </c>
+      <c r="FA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -56834,6 +57548,12 @@
       <c r="EZ120" t="n">
         <v>0</v>
       </c>
+      <c r="FA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -57304,6 +58024,12 @@
       <c r="EZ121" t="n">
         <v>0</v>
       </c>
+      <c r="FA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -57774,6 +58500,12 @@
       <c r="EZ122" t="n">
         <v>0</v>
       </c>
+      <c r="FA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -58244,6 +58976,12 @@
       <c r="EZ123" t="n">
         <v>0</v>
       </c>
+      <c r="FA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -58714,6 +59452,12 @@
       <c r="EZ124" t="n">
         <v>0</v>
       </c>
+      <c r="FA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -59184,6 +59928,12 @@
       <c r="EZ125" t="n">
         <v>0</v>
       </c>
+      <c r="FA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -59654,6 +60404,12 @@
       <c r="EZ126" t="n">
         <v>0</v>
       </c>
+      <c r="FA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -60124,6 +60880,12 @@
       <c r="EZ127" t="n">
         <v>0</v>
       </c>
+      <c r="FA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -60594,6 +61356,12 @@
       <c r="EZ128" t="n">
         <v>0</v>
       </c>
+      <c r="FA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -61064,6 +61832,12 @@
       <c r="EZ129" t="n">
         <v>0</v>
       </c>
+      <c r="FA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -61534,6 +62308,12 @@
       <c r="EZ130" t="n">
         <v>0</v>
       </c>
+      <c r="FA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -62004,6 +62784,12 @@
       <c r="EZ131" t="n">
         <v>0</v>
       </c>
+      <c r="FA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -62474,6 +63260,12 @@
       <c r="EZ132" t="n">
         <v>0</v>
       </c>
+      <c r="FA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -62944,6 +63736,12 @@
       <c r="EZ133" t="n">
         <v>0</v>
       </c>
+      <c r="FA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -63414,6 +64212,12 @@
       <c r="EZ134" t="n">
         <v>0</v>
       </c>
+      <c r="FA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -63884,6 +64688,12 @@
       <c r="EZ135" t="n">
         <v>0</v>
       </c>
+      <c r="FA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -64354,6 +65164,12 @@
       <c r="EZ136" t="n">
         <v>0</v>
       </c>
+      <c r="FA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -64824,6 +65640,12 @@
       <c r="EZ137" t="n">
         <v>0</v>
       </c>
+      <c r="FA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -65294,6 +66116,12 @@
       <c r="EZ138" t="n">
         <v>0</v>
       </c>
+      <c r="FA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -65764,6 +66592,12 @@
       <c r="EZ139" t="n">
         <v>0</v>
       </c>
+      <c r="FA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -66234,6 +67068,12 @@
       <c r="EZ140" t="n">
         <v>0</v>
       </c>
+      <c r="FA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -66704,6 +67544,12 @@
       <c r="EZ141" t="n">
         <v>0</v>
       </c>
+      <c r="FA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -67174,6 +68020,12 @@
       <c r="EZ142" t="n">
         <v>0</v>
       </c>
+      <c r="FA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -67644,6 +68496,12 @@
       <c r="EZ143" t="n">
         <v>0</v>
       </c>
+      <c r="FA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -68114,6 +68972,12 @@
       <c r="EZ144" t="n">
         <v>0</v>
       </c>
+      <c r="FA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -68584,6 +69448,12 @@
       <c r="EZ145" t="n">
         <v>0</v>
       </c>
+      <c r="FA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -69054,6 +69924,12 @@
       <c r="EZ146" t="n">
         <v>0</v>
       </c>
+      <c r="FA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -69524,6 +70400,12 @@
       <c r="EZ147" t="n">
         <v>0</v>
       </c>
+      <c r="FA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -69994,6 +70876,12 @@
       <c r="EZ148" t="n">
         <v>0</v>
       </c>
+      <c r="FA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -70464,6 +71352,12 @@
       <c r="EZ149" t="n">
         <v>0</v>
       </c>
+      <c r="FA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -70934,6 +71828,12 @@
       <c r="EZ150" t="n">
         <v>0</v>
       </c>
+      <c r="FA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -71404,6 +72304,12 @@
       <c r="EZ151" t="n">
         <v>0</v>
       </c>
+      <c r="FA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -71874,6 +72780,12 @@
       <c r="EZ152" t="n">
         <v>0</v>
       </c>
+      <c r="FA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -72344,6 +73256,12 @@
       <c r="EZ153" t="n">
         <v>0</v>
       </c>
+      <c r="FA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -72814,6 +73732,12 @@
       <c r="EZ154" t="n">
         <v>0</v>
       </c>
+      <c r="FA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -73284,6 +74208,12 @@
       <c r="EZ155" t="n">
         <v>0</v>
       </c>
+      <c r="FA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -73753,6 +74683,964 @@
       </c>
       <c r="EZ156" t="n">
         <v>285</v>
+      </c>
+      <c r="FA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>14</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB157" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG157" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH157" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN157" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS157" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT157" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW157" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY157" t="n">
+        <v>6</v>
+      </c>
+      <c r="CZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DD157" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE157" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH157" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="DK157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DL157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DM157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR157" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DU157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DW157" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX157" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY157" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA157" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB157" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC157" t="n">
+        <v>6</v>
+      </c>
+      <c r="ED157" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF157" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="EH157" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="EK157" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL157" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM157" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN157" t="n">
+        <v>4</v>
+      </c>
+      <c r="EO157" t="n">
+        <v>7</v>
+      </c>
+      <c r="EP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER157" t="n">
+        <v>8</v>
+      </c>
+      <c r="ES157" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET157" t="n">
+        <v>10</v>
+      </c>
+      <c r="EU157" t="n">
+        <v>16</v>
+      </c>
+      <c r="EV157" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW157" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX157" t="n">
+        <v>10</v>
+      </c>
+      <c r="EY157" t="n">
+        <v>21</v>
+      </c>
+      <c r="EZ157" t="n">
+        <v>13</v>
+      </c>
+      <c r="FA157" t="n">
+        <v>182</v>
+      </c>
+      <c r="FB157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>25</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="n">
+        <v>3</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC158" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG158" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH158" t="n">
+        <v>5</v>
+      </c>
+      <c r="CI158" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL158" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM158" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP158" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV158" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY158" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA158" t="n">
+        <v>6</v>
+      </c>
+      <c r="DB158" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC158" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF158" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH158" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="DK158" t="n">
+        <v>4</v>
+      </c>
+      <c r="DL158" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM158" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN158" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO158" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DR158" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT158" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU158" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV158" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW158" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX158" t="n">
+        <v>5</v>
+      </c>
+      <c r="DY158" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="EA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB158" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC158" t="n">
+        <v>5</v>
+      </c>
+      <c r="ED158" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE158" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF158" t="n">
+        <v>4</v>
+      </c>
+      <c r="EG158" t="n">
+        <v>4</v>
+      </c>
+      <c r="EH158" t="n">
+        <v>11</v>
+      </c>
+      <c r="EI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ158" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK158" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL158" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM158" t="n">
+        <v>5</v>
+      </c>
+      <c r="EN158" t="n">
+        <v>4</v>
+      </c>
+      <c r="EO158" t="n">
+        <v>3</v>
+      </c>
+      <c r="EP158" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER158" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES158" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET158" t="n">
+        <v>11</v>
+      </c>
+      <c r="EU158" t="n">
+        <v>12</v>
+      </c>
+      <c r="EV158" t="n">
+        <v>10</v>
+      </c>
+      <c r="EW158" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX158" t="n">
+        <v>13</v>
+      </c>
+      <c r="EY158" t="n">
+        <v>16</v>
+      </c>
+      <c r="EZ158" t="n">
+        <v>16</v>
+      </c>
+      <c r="FA158" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB158" t="n">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="248">
   <si>
     <t>stream</t>
   </si>
@@ -8031,6 +8031,23 @@
         <v>247</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>411.0</v>
+      </c>
+      <c r="B413" s="1">
+        <v>1051.0</v>
+      </c>
+      <c r="C413" s="1">
+        <v>1291.0</v>
+      </c>
+      <c r="D413" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
